--- a/Archivos/Excel.xlsx
+++ b/Archivos/Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgonzalezc\Documents\UiPath\CursoRPA_Platzi\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Documents\UiPath\UIPathPlatzi\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A21AA1-EC0D-4DF8-8F7F-BCC51E15DFAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E2023D-7082-41E2-9836-4F243ADE201C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" xr2:uid="{19D3FE53-B820-4D4B-B32D-5B121A6C81D2}"/>
+    <workbookView xWindow="13215" yWindow="2175" windowWidth="15375" windowHeight="7875" xr2:uid="{19D3FE53-B820-4D4B-B32D-5B121A6C81D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Curso de VR con Unity</t>
   </si>
@@ -81,7 +81,25 @@
     <t>Curso de Angular: Unit Testing para Rutas</t>
   </si>
   <si>
-    <t>Hola Desde un Excel</t>
+    <t>Curso</t>
+  </si>
+  <si>
+    <t>Estatus</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>PaginaWeb</t>
   </si>
 </sst>
 </file>
@@ -137,7 +155,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -433,131 +451,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1F03FD-1C68-4233-9A78-1736BC6ECD3B}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>1</v>
       </c>
     </row>
